--- a/Documentação/Documentação/Backlog.xlsx
+++ b/Documentação/Documentação/Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/viviane_santos_sptech_school/Documents/TI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/viviane_santos_sptech_school/Documents/PI/projeto-pi/Documentação/Documentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="759" documentId="8_{CBC8C41A-E05A-4B46-B23C-A18556E3780F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{938CB3F5-C183-4C29-9E66-281689DEC118}"/>
+  <xr:revisionPtr revIDLastSave="1185" documentId="8_{CBC8C41A-E05A-4B46-B23C-A18556E3780F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFF30D84-E882-4FAA-AD7C-D463355745EE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{0E4C50FC-4743-41E1-8EF2-E2C48055392E}"/>
   </bookViews>
@@ -18,6 +18,9 @@
     <sheet name="SPRINT2Backlog" sheetId="3" r:id="rId3"/>
     <sheet name="SPRINT3Backlog" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BackLog!$A$2:$J$44</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="123">
   <si>
     <t>Requisito</t>
   </si>
@@ -119,9 +122,6 @@
     <t>Instalação e configuração do Arduíno</t>
   </si>
   <si>
-    <t>Instalação e configuração do feito no IDE Arduíno</t>
-  </si>
-  <si>
     <t>Instalação da VM local</t>
   </si>
   <si>
@@ -152,9 +152,6 @@
     <t>Erik</t>
   </si>
   <si>
-    <t>Moisés</t>
-  </si>
-  <si>
     <t>Bhreno</t>
   </si>
   <si>
@@ -233,18 +230,12 @@
     <t>Arquitetura técnica do projeto.</t>
   </si>
   <si>
-    <t>Modelagem lógico do banco de dados.</t>
-  </si>
-  <si>
     <t>Demanda, pontuação e prioridade.</t>
   </si>
   <si>
     <t>Sprints e atividades organizadas na ferramenta de gestão.</t>
   </si>
   <si>
-    <t>Simulção da integração do sistema usando o sensor e gráfico.</t>
-  </si>
-  <si>
     <t>Usar a API para a integração do sensor.</t>
   </si>
   <si>
@@ -287,15 +278,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>SP1</t>
-  </si>
-  <si>
-    <t>SP2</t>
-  </si>
-  <si>
-    <t>SP3</t>
-  </si>
-  <si>
     <t>Média</t>
   </si>
   <si>
@@ -311,20 +293,132 @@
     <t>G</t>
   </si>
   <si>
-    <t>PP</t>
-  </si>
-  <si>
     <t>Pendente</t>
   </si>
   <si>
     <t>Kaio</t>
+  </si>
+  <si>
+    <t>Realizado</t>
+  </si>
+  <si>
+    <t>Planejado</t>
+  </si>
+  <si>
+    <t>SPRINT4</t>
+  </si>
+  <si>
+    <t>Infraestrutura simulada de cliente na VM</t>
+  </si>
+  <si>
+    <t>Modelagem Lógica e
+Script SQL Server</t>
+  </si>
+  <si>
+    <t>Teste integrado do analytics</t>
+  </si>
+  <si>
+    <t>Teste integrado da solução de IoT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teste integrado (Arduíno + DB)</t>
+  </si>
+  <si>
+    <t>Data Acqu Ino + BobIA (N3)</t>
+  </si>
+  <si>
+    <t>Instalação e configuração do arduíno feito no IDE Arduíno</t>
+  </si>
+  <si>
+    <t>Especificar quais gráficos e KPIs que serão apresentadas na dashboard.</t>
+  </si>
+  <si>
+    <t>Modelagem lógica do banco de dados.</t>
+  </si>
+  <si>
+    <t>Simulação da integração do sistema usando o sensor e gráfico.</t>
+  </si>
+  <si>
+    <t>Tabelas criadas no banco de dados (Final)</t>
+  </si>
+  <si>
+    <t>Manual de instalação</t>
+  </si>
+  <si>
+    <t>Documentação do projeto atualizada</t>
+  </si>
+  <si>
+    <t>PPT de apresentação do projeto</t>
+  </si>
+  <si>
+    <t>Dashboard(ChartJS) acessando o banco</t>
+  </si>
+  <si>
+    <t>Individual - Indicadores acessando o banco</t>
+  </si>
+  <si>
+    <t>Cadastro e login acessando o banco</t>
+  </si>
+  <si>
+    <t>Site institucional</t>
+  </si>
+  <si>
+    <t>Infraestrutura simulada de cliente na maquina virtual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teste integrado do arduíno e do banco de dados.</t>
+  </si>
+  <si>
+    <t>Versão final das tabelas criadas no banco de dados.</t>
+  </si>
+  <si>
+    <t>Manual para instalação dos sensores e todo o sistema.</t>
+  </si>
+  <si>
+    <t>Documentação do projeto atualizada.</t>
+  </si>
+  <si>
+    <t>PPT de apresentação do projeto.</t>
+  </si>
+  <si>
+    <t>Dashboard feita com ChartJS acessando o banco.</t>
+  </si>
+  <si>
+    <t>Versão final do site institucional.</t>
+  </si>
+  <si>
+    <t>Cadastro e login acessando o banco.</t>
+  </si>
+  <si>
+    <t>Individual - Indicadores acessando o banco.</t>
+  </si>
+  <si>
+    <t>Fluxograma de suporte.</t>
+  </si>
+  <si>
+    <t>Ferramente de Help Desk.</t>
+  </si>
+  <si>
+    <t>Documento de mudança.</t>
+  </si>
+  <si>
+    <t>Modelagem Lógica e Script SQL Server.</t>
+  </si>
+  <si>
+    <t>Teste integrado do analytics.</t>
+  </si>
+  <si>
+    <t>Teste integrado da solução de IoT.</t>
+  </si>
+  <si>
+    <t>Data Acqu Ino + BobIA (N3).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,11 +460,19 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Inter"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,12 +511,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -583,17 +679,6 @@
         <color theme="0"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -699,11 +784,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -765,43 +865,18 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -809,9 +884,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -829,23 +901,20 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -854,41 +923,20 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -903,24 +951,724 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Em andamento" xfId="2" xr:uid="{9476B982-B6F7-4CB1-924B-F489FE081646}"/>
+    <cellStyle name="Feito" xfId="1" xr:uid="{5B153B00-796B-4D41-98D1-35BE0DB48071}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF2D20EE"/>
+      <color rgb="FF808080"/>
+      <color rgb="FF6600FF"/>
+      <color rgb="FF9999FF"/>
+      <color rgb="FFCCCCFF"/>
+      <color rgb="FFFF9900"/>
       <color rgb="FFFF3300"/>
       <color rgb="FFFF6600"/>
-      <color rgb="FFFFCC00"/>
       <color rgb="FFFFCC66"/>
       <color rgb="FFFFFF00"/>
-      <color rgb="FFFFFF66"/>
-      <color rgb="FFCCCCFF"/>
-      <color rgb="FF9999FF"/>
-      <color rgb="FF7269F2"/>
+      <color rgb="FF2D20EE"/>
     </mruColors>
   </colors>
   <extLst>
@@ -934,8 +1682,1311 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Inter"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="1"/>
+              <a:t>SafeWare - BurnDown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37206317594364768"/>
+          <c:y val="3.4311520174254692E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Inter"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Planejado</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.9287622917622571E-2"/>
+                  <c:y val="3.3390641328734247E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-EA69-4627-ADE5-D4A6010A07C6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2206514881782123E-2"/>
+                  <c:y val="-3.3252648616629972E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-EA69-4627-ADE5-D4A6010A07C6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5293947140059539E-2"/>
+                  <c:y val="2.6305508637543096E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-EA69-4627-ADE5-D4A6010A07C6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.6045216481050167E-2"/>
+                  <c:y val="3.32888751602885E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-EA69-4627-ADE5-D4A6010A07C6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="808080"/>
+                    </a:solidFill>
+                    <a:latin typeface="Inter"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>BackLog!$L$3:$L$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SPRINT1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SPRINT2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SPRINT3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPRINT4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BackLog!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA69-4627-ADE5-D4A6010A07C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Realizado</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="6600FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3906894043922723E-2"/>
+                  <c:y val="-2.2801982117361314E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-EA69-4627-ADE5-D4A6010A07C6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5293947140059498E-2"/>
+                  <c:y val="2.6305508637543225E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-EA69-4627-ADE5-D4A6010A07C6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5429809538722129E-2"/>
+                  <c:y val="-4.036217694426622E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-EA69-4627-ADE5-D4A6010A07C6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5293959320952681E-2"/>
+                  <c:y val="-3.3236609383559733E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-EA69-4627-ADE5-D4A6010A07C6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="6600FF"/>
+                    </a:solidFill>
+                    <a:latin typeface="Inter"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>BackLog!$L$3:$L$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SPRINT1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SPRINT2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SPRINT3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPRINT4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BackLog!$N$3:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA69-4627-ADE5-D4A6010A07C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1814549743"/>
+        <c:axId val="1814548303"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1814549743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Inter"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1814548303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1814548303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Inter"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1814549743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33429668340141278"/>
+          <c:y val="9.9160576040589948E-2"/>
+          <c:w val="0.38172746821936021"/>
+          <c:h val="0.11666463421699833"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Inter"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Inter"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>606367</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{290094B6-03E6-BD89-4E95-29F5DF0808A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1255,48 +3306,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F959334-FF27-4A0F-9E6B-19A8615EAC13}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="43" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="56" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="43" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="12" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
-    </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1317,870 +3368,1492 @@
       <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="32.1" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="J2" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="64"/>
+      <c r="M2" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>86</v>
+      <c r="C3" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>79</v>
       </c>
       <c r="E3" s="8">
         <v>5</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
       <c r="G3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="43">
-        <f>SUM(M4:M6)</f>
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="32.1" customHeight="1">
-      <c r="A4" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="63">
+        <f>SUM(N4:N7)</f>
+        <v>462</v>
+      </c>
+      <c r="N3" s="63">
+        <f>SUM(N4:N7)</f>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>87</v>
+      <c r="C4" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="E4" s="9">
         <v>21</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
       <c r="G4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M4" s="8">
-        <f>SUM(E3:E12)</f>
+        <v>28</v>
+      </c>
+      <c r="M4" s="54">
+        <f>N3/3</f>
+        <v>154</v>
+      </c>
+      <c r="N4" s="8">
+        <f>SUMIF($G$3:$G$35,L4,$E$3:$E$35)</f>
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="32.1" customHeight="1">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>88</v>
+      <c r="C5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="E5" s="9">
         <v>8</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
       <c r="G5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" s="8">
-        <f>SUM(E13:E27)</f>
+      <c r="M5" s="54">
+        <f>N3/3</f>
+        <v>154</v>
+      </c>
+      <c r="N5" s="8">
+        <f>SUMIF($G$3:$G$35,L5,$E$3:$E$35)</f>
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="32.1" customHeight="1">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>89</v>
+      <c r="C6" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>82</v>
       </c>
       <c r="E6" s="8">
         <v>13</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
       <c r="G6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="57" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" s="8">
-        <f>SUM(E28:E30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="32.1" customHeight="1">
-      <c r="A7" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="54">
+        <f>N3/3</f>
+        <v>154</v>
+      </c>
+      <c r="N6" s="8">
+        <f>SUMIF($G$3:$G$44,L6,$E$3:$E$44)</f>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>87</v>
+      <c r="C7" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="E7" s="13">
         <v>21</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
       <c r="G7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" s="43">
-        <f>AVERAGE(M4:M6)</f>
-        <v>99.666666666666671</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="32.1" customHeight="1">
-      <c r="A8" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>88</v>
+      <c r="C8" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="E8" s="4">
         <v>8</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="13">
+        <v>3</v>
+      </c>
       <c r="G8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="57" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="32.1" customHeight="1">
-      <c r="A9" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="53">
+        <f>AVERAGE(N4:N6)</f>
+        <v>154</v>
+      </c>
+      <c r="N8" s="53">
+        <f>AVERAGE(N4:N6)</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>87</v>
+      <c r="C9" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="E9" s="5">
         <v>21</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
       <c r="G9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="59" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>32</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="32.1" customHeight="1">
-      <c r="A10" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>87</v>
+      <c r="C10" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="E10" s="4">
         <v>21</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
       <c r="G10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="32.1" customHeight="1">
-      <c r="A11" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="E11" s="5">
         <v>8</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="13">
+        <v>2</v>
+      </c>
       <c r="G11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="62" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="32.1" customHeight="1">
-      <c r="A12" s="35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>88</v>
+      <c r="C12" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="E12" s="17">
         <v>8</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4">
+        <v>3</v>
+      </c>
       <c r="G12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="57" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="32.1" customHeight="1">
-      <c r="A13" s="36" t="s">
-        <v>42</v>
+        <v>73</v>
+      </c>
+      <c r="L12" s="61"/>
+    </row>
+    <row r="13" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>88</v>
+        <v>60</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="E13" s="17">
         <v>8</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
       <c r="G13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="J13" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="32.1" customHeight="1">
-      <c r="A14" s="34" t="s">
-        <v>43</v>
+        <v>68</v>
+      </c>
+      <c r="L13" s="61"/>
+    </row>
+    <row r="14" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>88</v>
+        <v>59</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="E14" s="17">
         <v>8</v>
       </c>
-      <c r="F14" s="16"/>
+      <c r="F14" s="16">
+        <v>2</v>
+      </c>
       <c r="G14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="J14" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="32.1" customHeight="1">
-      <c r="A15" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>89</v>
+        <v>68</v>
+      </c>
+      <c r="L14" s="61"/>
+    </row>
+    <row r="15" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>82</v>
       </c>
       <c r="E15" s="8">
         <v>13</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
       <c r="G15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="J15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" s="63" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="32.1" customHeight="1">
-      <c r="A16" s="37" t="s">
-        <v>45</v>
+        <v>68</v>
+      </c>
+      <c r="L15" s="61"/>
+    </row>
+    <row r="16" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>89</v>
+        <v>58</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>82</v>
       </c>
       <c r="E16" s="8">
         <v>13</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="13">
+        <v>2</v>
+      </c>
       <c r="G16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="J16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="54" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="32.1" customHeight="1">
-      <c r="A17" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>89</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>82</v>
       </c>
       <c r="E17" s="8">
         <v>13</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
       <c r="G17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="J17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L17" s="67" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="32.1" customHeight="1">
-      <c r="A18" s="35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>89</v>
+      <c r="C18" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>82</v>
       </c>
       <c r="E18" s="8">
         <v>13</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5">
+        <v>2</v>
+      </c>
       <c r="G18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="60" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>32</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="32.1" customHeight="1">
-      <c r="A19" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>89</v>
+      <c r="C19" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>82</v>
       </c>
       <c r="E19" s="8">
         <v>13</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="14">
+        <v>2</v>
+      </c>
       <c r="G19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>32</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A20" s="34" t="s">
-        <v>47</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>88</v>
+        <v>61</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="E20" s="17">
         <v>8</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="14">
+        <v>1</v>
+      </c>
       <c r="G20" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="J20" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="32.1" customHeight="1">
-      <c r="A21" s="34" t="s">
-        <v>48</v>
+        <v>70</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="17">
+        <v>63</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="4">
         <v>8</v>
       </c>
-      <c r="F21" s="16"/>
+      <c r="F21" s="16">
+        <v>2</v>
+      </c>
       <c r="G21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="54" t="s">
-        <v>91</v>
+        <v>29</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>83</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="32.1" customHeight="1">
-      <c r="A22" s="36" t="s">
-        <v>49</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>89</v>
+        <v>62</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>82</v>
       </c>
       <c r="E22" s="8">
         <v>13</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="52" t="s">
-        <v>33</v>
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="32.1" customHeight="1">
-      <c r="A23" s="34" t="s">
-        <v>50</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>88</v>
+        <v>96</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="E23" s="17">
         <v>8</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4">
+        <v>3</v>
+      </c>
       <c r="G23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="J23" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="32.1" customHeight="1">
-      <c r="A24" s="36" t="s">
-        <v>51</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>89</v>
+        <v>97</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>82</v>
       </c>
       <c r="E24" s="8">
         <v>13</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
       <c r="G24" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="J24" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="32.1" customHeight="1">
-      <c r="A25" s="34" t="s">
-        <v>52</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>89</v>
+        <v>64</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>82</v>
       </c>
       <c r="E25" s="8">
         <v>13</v>
       </c>
-      <c r="F25" s="16"/>
+      <c r="F25" s="16">
+        <v>2</v>
+      </c>
       <c r="G25" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="J25" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="32.1" customHeight="1">
-      <c r="A26" s="34" t="s">
-        <v>53</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>88</v>
+        <v>65</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="E26" s="17">
         <v>8</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="4">
+        <v>3</v>
+      </c>
       <c r="G26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="54" t="s">
-        <v>91</v>
+        <v>29</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>83</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="31.5" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="53" t="s">
-        <v>89</v>
+        <v>52</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>82</v>
       </c>
       <c r="E27" s="8">
         <v>13</v>
       </c>
-      <c r="F27" s="41"/>
+      <c r="F27" s="31">
+        <v>1</v>
+      </c>
       <c r="G27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="4">
+        <v>8</v>
+      </c>
+      <c r="F28" s="31">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="54" t="s">
+      <c r="H28" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="4">
+        <v>8</v>
+      </c>
+      <c r="F29" s="31">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="8">
+        <v>13</v>
+      </c>
+      <c r="F30" s="31">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="4">
+        <v>8</v>
+      </c>
+      <c r="F31" s="31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="4">
+        <v>8</v>
+      </c>
+      <c r="F32" s="31">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="4">
+        <v>8</v>
+      </c>
+      <c r="F33" s="31">
+        <v>1</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A28" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A29" s="32" t="s">
+      <c r="B34" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="4">
+        <v>8</v>
+      </c>
+      <c r="F34" s="31">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="8">
+        <v>13</v>
+      </c>
+      <c r="F35" s="31">
+        <v>1</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="8">
+        <v>13</v>
+      </c>
+      <c r="F36" s="31">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="4">
+        <v>8</v>
+      </c>
+      <c r="F37" s="31">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="8">
+        <v>13</v>
+      </c>
+      <c r="F38" s="31">
+        <v>1</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="4">
+        <v>8</v>
+      </c>
+      <c r="F39" s="31">
+        <v>1</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A30" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="I30" s="41"/>
-      <c r="J30" s="5" t="s">
-        <v>74</v>
+      <c r="E40" s="8">
+        <v>5</v>
+      </c>
+      <c r="F40" s="31">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="8">
+        <v>13</v>
+      </c>
+      <c r="F41" s="31">
+        <v>1</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="8">
+        <v>13</v>
+      </c>
+      <c r="F42" s="31">
+        <v>1</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="4">
+        <v>8</v>
+      </c>
+      <c r="F43" s="31">
+        <v>1</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="4">
+        <v>8</v>
+      </c>
+      <c r="F44" s="31">
+        <v>1</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:J44" xr:uid="{2F959334-FF27-4A0F-9E6B-19A8615EAC13}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="H3:H44">
+    <cfRule type="containsText" dxfId="54" priority="9" operator="containsText" text="Pendente">
+      <formula>NOT(ISERROR(SEARCH("Pendente",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="10" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="Feito">
+      <formula>NOT(ISERROR(SEARCH("Feito",H3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D44">
+    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="PP">
+      <formula>NOT(ISERROR(SEARCH("PP",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="GG">
+      <formula>NOT(ISERROR(SEARCH("GG",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="6" operator="containsText" text="G">
+      <formula>NOT(ISERROR(SEARCH("G",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="8" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C44">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Desejável">
+      <formula>NOT(ISERROR(SEARCH("Desejável",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Importante">
+      <formula>NOT(ISERROR(SEARCH("Importante",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Essencial">
+      <formula>NOT(ISERROR(SEARCH("Essencial",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H18 H20:H44" xr:uid="{57770960-B32A-4E77-8824-5E34729DA2D1}">
+      <formula1>"Feito,Em andamento,Pendente"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D44" xr:uid="{46B54BAF-FF80-4DEE-882A-3CFF59A27D0D}">
+      <formula1>"PP,P,M,G,GG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C44" xr:uid="{12338359-4C07-4F0B-9395-A91D677B2843}">
+      <formula1>"Essencial,Importante,Desejável"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2189,10 +4862,10 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K6" activeCellId="1" sqref="K2:K4 K6:K8"/>
+      <selection activeCell="K2" sqref="K2:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" customWidth="1"/>
@@ -2206,25 +4879,25 @@
     <col min="10" max="10" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
-    </row>
-    <row r="2" spans="1:11" ht="27" customHeight="1">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2245,346 +4918,407 @@
       <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="64" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="J2" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>86</v>
+      <c r="C3" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>79</v>
       </c>
       <c r="E3" s="8">
         <v>5</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
       <c r="G3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A4" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>87</v>
+      <c r="C4" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="E4" s="9">
         <v>21</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
       <c r="G4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="67" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A5" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>88</v>
+      <c r="C5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="E5" s="9">
         <v>8</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
       <c r="G5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="57" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A6" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="62"/>
+    </row>
+    <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>89</v>
+      <c r="C6" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>82</v>
       </c>
       <c r="E6" s="8">
         <v>13</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
       <c r="G6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="57" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" s="57" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A7" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="61"/>
+    </row>
+    <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>87</v>
+      <c r="C7" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="E7" s="13">
         <v>21</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
       <c r="G7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A8" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="61"/>
+    </row>
+    <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>88</v>
+      <c r="C8" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="E8" s="4">
         <v>8</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="13">
+        <v>3</v>
+      </c>
       <c r="G8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="57" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A9" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="61"/>
+    </row>
+    <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>87</v>
+      <c r="C9" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="E9" s="5">
         <v>21</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
       <c r="G9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="59" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>32</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A10" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>87</v>
+      <c r="C10" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="E10" s="4">
         <v>21</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
       <c r="G10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="I10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="5">
+        <v>8</v>
+      </c>
+      <c r="F11" s="13">
+        <v>2</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="17">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A11" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="9">
-        <v>8</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A12" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="19">
-        <v>8</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="J12" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="44"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="D15" s="45"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="33"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="H3:H12">
+    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="Pendente">
+      <formula>NOT(ISERROR(SEARCH("Pendente",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="10" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="Feito">
+      <formula>NOT(ISERROR(SEARCH("Feito",H3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D12">
+    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="PP">
+      <formula>NOT(ISERROR(SEARCH("PP",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="GG">
+      <formula>NOT(ISERROR(SEARCH("GG",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="6" operator="containsText" text="G">
+      <formula>NOT(ISERROR(SEARCH("G",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="8" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C12">
+    <cfRule type="containsText" dxfId="35" priority="2" operator="containsText" text="Desejável">
+      <formula>NOT(ISERROR(SEARCH("Desejável",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="Importante">
+      <formula>NOT(ISERROR(SEARCH("Importante",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="4" operator="containsText" text="Essencial">
+      <formula>NOT(ISERROR(SEARCH("Essencial",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C12" xr:uid="{D48541A1-249B-41EB-B369-E7E3CCE26A0D}">
+      <formula1>"Essencial,Importante,Desejável"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D12" xr:uid="{46A70FCB-6668-4964-88E9-D8C523E9E2FC}">
+      <formula1>"PP,P,M,G,GG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H12" xr:uid="{36524681-FDB6-457B-A227-9B38E323F866}">
+      <formula1>"Feito,Em andamento,Pendente"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -2594,10 +5328,10 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A3" sqref="A3:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" customWidth="1"/>
@@ -2611,25 +5345,25 @@
     <col min="10" max="10" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" customHeight="1">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
-    </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2650,422 +5384,580 @@
       <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="17">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="17">
+        <v>8</v>
+      </c>
+      <c r="F4" s="16">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="8">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="8">
+        <v>13</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="8">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="8">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="8">
+        <v>13</v>
+      </c>
+      <c r="F9" s="14">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="17">
+        <v>8</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="4">
+        <v>8</v>
+      </c>
+      <c r="F11" s="16">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="8">
+        <v>13</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="17">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="8">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A3" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="14" t="s">
+    <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="8">
+        <v>13</v>
+      </c>
+      <c r="F15" s="16">
+        <v>2</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="17">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="64" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A4" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A5" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="67" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A6" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="57" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A7" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="4" t="s">
+    </row>
+    <row r="17" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="8">
+        <v>13</v>
+      </c>
+      <c r="F17" s="31">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="K7" s="59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A8" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A9" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A10" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A11" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A12" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A13" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A14" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A15" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A16" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="35.1" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="H3:H17">
+    <cfRule type="containsText" dxfId="32" priority="9" operator="containsText" text="Pendente">
+      <formula>NOT(ISERROR(SEARCH("Pendente",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="10" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="Feito">
+      <formula>NOT(ISERROR(SEARCH("Feito",H3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D17">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="PP">
+      <formula>NOT(ISERROR(SEARCH("PP",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="GG">
+      <formula>NOT(ISERROR(SEARCH("GG",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="G">
+      <formula>NOT(ISERROR(SEARCH("G",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C17">
+    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="Desejável">
+      <formula>NOT(ISERROR(SEARCH("Desejável",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="Importante">
+      <formula>NOT(ISERROR(SEARCH("Importante",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="Essencial">
+      <formula>NOT(ISERROR(SEARCH("Essencial",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C17" xr:uid="{0172C48A-162C-48BC-A562-EF9F3673FD01}">
+      <formula1>"Essencial,Importante,Desejável"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D17" xr:uid="{46EB59CC-80EE-48F0-B0EE-8DD2C4806ED1}">
+      <formula1>"PP,P,M,G,GG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H8 H10:H17" xr:uid="{23E4FBFB-4229-4358-87A5-98F7C74BA8E3}">
+      <formula1>"Feito,Em andamento,Pendente"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0AB95F-2B2D-4CE0-AA7C-EBD2C608D4E9}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="7" width="12.7109375" customWidth="1"/>
@@ -3074,25 +5966,25 @@
     <col min="10" max="10" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3113,17 +6005,577 @@
       <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8</v>
+      </c>
+      <c r="F3" s="31">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8</v>
+      </c>
+      <c r="F4" s="31">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="8">
+        <v>13</v>
+      </c>
+      <c r="F5" s="31">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="4">
+        <v>8</v>
+      </c>
+      <c r="F6" s="31">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="4">
+        <v>8</v>
+      </c>
+      <c r="F7" s="31">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="4">
+        <v>8</v>
+      </c>
+      <c r="F8" s="31">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="4" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8</v>
+      </c>
+      <c r="F9" s="31">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="8">
+        <v>13</v>
+      </c>
+      <c r="F10" s="31">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="8">
+        <v>13</v>
+      </c>
+      <c r="F11" s="31">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8</v>
+      </c>
+      <c r="F12" s="31">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="8">
+        <v>13</v>
+      </c>
+      <c r="F13" s="31">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="4">
+        <v>8</v>
+      </c>
+      <c r="F14" s="31">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="8">
+        <v>5</v>
+      </c>
+      <c r="F15" s="31">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="8">
+        <v>13</v>
+      </c>
+      <c r="F16" s="31">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="8">
+        <v>13</v>
+      </c>
+      <c r="F17" s="31">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8</v>
+      </c>
+      <c r="F18" s="31">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="4">
+        <v>8</v>
+      </c>
+      <c r="F19" s="31">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="H3:H19">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="Pendente">
+      <formula>NOT(ISERROR(SEARCH("Pendente",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="Feito">
+      <formula>NOT(ISERROR(SEARCH("Feito",H3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D19">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="PP">
+      <formula>NOT(ISERROR(SEARCH("PP",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="GG">
+      <formula>NOT(ISERROR(SEARCH("GG",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="G">
+      <formula>NOT(ISERROR(SEARCH("G",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="M">
+      <formula>NOT(ISERROR(SEARCH("M",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C19">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Desejável">
+      <formula>NOT(ISERROR(SEARCH("Desejável",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Importante">
+      <formula>NOT(ISERROR(SEARCH("Importante",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Essencial">
+      <formula>NOT(ISERROR(SEARCH("Essencial",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C19" xr:uid="{7784239E-6ED3-4C54-B8E2-C0139A6CDB99}">
+      <formula1>"Essencial,Importante,Desejável"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D19" xr:uid="{A7B7E187-3FA5-4BA5-8D69-8CB6A43C4999}">
+      <formula1>"PP,P,M,G,GG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H19" xr:uid="{A791D5A7-2CDD-4DC9-9C4B-4C30409C72C5}">
+      <formula1>"Feito,Em andamento,Pendente"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>